--- a/note.xlsx
+++ b/note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\ASN1_TOOL_refactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE92479-9C7E-42DB-82C1-0B4A2B582AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF73AAC5-AC79-4050-86E5-E39324EC0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="-4785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     OSUINT32 numocts;
     OSOCTET data[( {{metadata.size}} )];
 } e2ap_{{name}};</t>
-  </si>
-  <si>
-    <t>typedef OSDynOctStr e2ap_{{name}};</t>
   </si>
   <si>
     <t>typedef const char* e2ap_{{name}};</t>
@@ -280,6 +277,14 @@
 typedef struct { -&gt; transportlayeraddress   ***
      UInt8 xxx[_XXX_OCTET_SZIE]; -&gt; so bit /8
 }_e2ap_XXX</t>
+  </si>
+  <si>
+    <t>typedef OSDynOctStr e2ap_{{name}};
+-&gt;
+typedef OSDynOctStr{
+OSUINT32 numocts;
+const OSOCTET *data;
+}</t>
   </si>
 </sst>
 </file>
@@ -521,6 +526,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,12 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -878,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -903,11 +908,11 @@
         <v>18</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="138.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1">
@@ -917,17 +922,17 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1">
         <v>3</v>
       </c>
@@ -938,14 +943,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -953,17 +958,17 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1">
         <v>6</v>
       </c>
@@ -974,14 +979,14 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -992,14 +997,14 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1013,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1">
         <v>8</v>
       </c>
@@ -1019,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1">
         <v>9</v>
       </c>
@@ -1034,17 +1039,17 @@
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1">
         <v>10</v>
       </c>
@@ -1052,17 +1057,17 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1076,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1">
         <v>13</v>
       </c>
@@ -1079,26 +1084,26 @@
         <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1112,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1121,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1130,7 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1139,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="C18" s="7" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1148,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1157,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1166,7 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1175,7 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1184,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1189,47 +1194,47 @@
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:6" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>29</v>
+      <c r="A26" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="26"/>
       <c r="C27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="260.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="26"/>
       <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="26"/>
       <c r="C29" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="15"/>
@@ -1276,15 +1281,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/note.xlsx
+++ b/note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\ASN1_TOOL_refactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF73AAC5-AC79-4050-86E5-E39324EC0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B59EF67-73B2-43B6-84AF-BF1851361EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7065" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,14 +240,6 @@
     <t>typedef const char* _e2ap_{{name}};</t>
   </si>
   <si>
-    <t>dung e2ap_dynamic_string_t -&gt; typedef ra
-===============
-typedef struct {
-   UInt32 num_string_len;
-    UInt8 * string_data;
-}_e2ap_{{name}}</t>
-  </si>
-  <si>
     <t>typdef enum{
    AAA;
    BBB;
@@ -285,6 +277,14 @@
 OSUINT32 numocts;
 const OSOCTET *data;
 }</t>
+  </si>
+  <si>
+    <t>dung e2ap_dynamic_string_t -&gt; typedef ra
+===============
+typedef struct {
+   UInt32 num_string_len; -&gt; chuyển thành numocts
+    UInt8 * string_data; -&gt; chuyển thành UInt8 data[bytes]
+}_e2ap_{{name}}</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>40</v>
@@ -958,10 +958,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>31</v>
@@ -1039,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>36</v>
@@ -1087,7 +1087,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="9"/>
     </row>
